--- a/data/launches_for_analysis.xlsx
+++ b/data/launches_for_analysis.xlsx
@@ -1856,10 +1856,10 @@
         <v>50000000</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2559</v>
+        <v>3.2537</v>
       </c>
       <c r="K33" t="n">
-        <v>162795000</v>
+        <v>162685000</v>
       </c>
     </row>
     <row r="34">
